--- a/data_year/zb/科技/国外主要检索工具收录我国科技论文按学科分布/按学科分EI收录科技论文数.xlsx
+++ b/data_year/zb/科技/国外主要检索工具收录我国科技论文按学科分布/按学科分EI收录科技论文数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP16"/>
+  <dimension ref="A1:AP12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,1713 +643,1259 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>917</v>
+        <v>1083</v>
       </c>
       <c r="E2" t="n">
-        <v>17</v>
-      </c>
-      <c r="F2" t="inlineStr"/>
+        <v>2962</v>
+      </c>
+      <c r="F2" t="n">
+        <v>251</v>
+      </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>269</v>
+        <v>467</v>
       </c>
       <c r="I2" t="n">
-        <v>2007</v>
+        <v>1264</v>
       </c>
       <c r="J2" t="n">
-        <v>2130</v>
+        <v>10138</v>
       </c>
       <c r="K2" t="n">
-        <v>5111</v>
+        <v>3936</v>
       </c>
       <c r="L2" t="n">
-        <v>8021</v>
+        <v>12255</v>
       </c>
       <c r="M2" t="n">
-        <v>3069</v>
+        <v>2958</v>
       </c>
       <c r="N2" t="n">
-        <v>2366</v>
+        <v>5006</v>
       </c>
       <c r="O2" t="n">
-        <v>1998</v>
+        <v>1750</v>
       </c>
       <c r="P2" t="n">
-        <v>166</v>
+        <v>725</v>
       </c>
       <c r="Q2" t="n">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="R2" t="n">
-        <v>134</v>
+        <v>611</v>
       </c>
       <c r="S2" t="n">
-        <v>658</v>
+        <v>3743</v>
       </c>
       <c r="T2" t="n">
-        <v>2739</v>
+        <v>11922</v>
       </c>
       <c r="U2" t="n">
-        <v>2041</v>
+        <v>6017</v>
       </c>
       <c r="V2" t="n">
-        <v>3433</v>
+        <v>11442</v>
       </c>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="n">
-        <v>149</v>
+        <v>121</v>
       </c>
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="n">
-        <v>289</v>
+        <v>427</v>
       </c>
       <c r="AA2" t="n">
-        <v>127</v>
+        <v>622</v>
       </c>
       <c r="AB2" t="n">
-        <v>5704</v>
+        <v>12859</v>
       </c>
       <c r="AC2" t="n">
-        <v>766</v>
+        <v>709</v>
       </c>
       <c r="AD2" t="n">
-        <v>2627</v>
+        <v>1511</v>
       </c>
       <c r="AE2" t="n">
-        <v>7695</v>
+        <v>7867</v>
       </c>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="n">
-        <v>565</v>
+        <v>217</v>
       </c>
       <c r="AH2" t="n">
-        <v>60301</v>
+        <v>112070</v>
       </c>
       <c r="AI2" t="n">
-        <v>963</v>
+        <v>2161</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1528</v>
+        <v>1310</v>
       </c>
       <c r="AK2" t="n">
-        <v>873</v>
-      </c>
-      <c r="AL2" t="inlineStr"/>
+        <v>931</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>161</v>
+      </c>
       <c r="AM2" t="n">
-        <v>3755</v>
+        <v>5836</v>
       </c>
       <c r="AN2" t="n">
-        <v>24</v>
-      </c>
-      <c r="AO2" t="inlineStr"/>
+        <v>76</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>179</v>
+      </c>
       <c r="AP2" t="n">
-        <v>64</v>
+        <v>423</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>1034</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
+        <v>1643</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1705</v>
+      </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>477</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>300</v>
+        <v>403</v>
       </c>
       <c r="I3" t="n">
-        <v>2250</v>
+        <v>2058</v>
       </c>
       <c r="J3" t="n">
-        <v>2588</v>
+        <v>8095</v>
       </c>
       <c r="K3" t="n">
-        <v>5321</v>
+        <v>4949</v>
       </c>
       <c r="L3" t="n">
-        <v>9451</v>
+        <v>8881</v>
       </c>
       <c r="M3" t="n">
-        <v>3029</v>
+        <v>2365</v>
       </c>
       <c r="N3" t="n">
-        <v>2483</v>
+        <v>9407</v>
       </c>
       <c r="O3" t="n">
-        <v>1936</v>
+        <v>2736</v>
       </c>
       <c r="P3" t="n">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="Q3" t="n">
         <v>131</v>
       </c>
       <c r="R3" t="n">
-        <v>146</v>
+        <v>287</v>
       </c>
       <c r="S3" t="n">
-        <v>743</v>
+        <v>3465</v>
       </c>
       <c r="T3" t="n">
-        <v>2586</v>
+        <v>10374</v>
       </c>
       <c r="U3" t="n">
-        <v>2249</v>
+        <v>5241</v>
       </c>
       <c r="V3" t="n">
-        <v>3867</v>
+        <v>12596</v>
       </c>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="n">
-        <v>124</v>
+        <v>153</v>
       </c>
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="n">
-        <v>296</v>
+        <v>739</v>
       </c>
       <c r="AA3" t="n">
-        <v>114</v>
+        <v>579</v>
       </c>
       <c r="AB3" t="n">
-        <v>6620</v>
+        <v>12036</v>
       </c>
       <c r="AC3" t="n">
-        <v>1033</v>
+        <v>1326</v>
       </c>
       <c r="AD3" t="n">
-        <v>2153</v>
+        <v>4821</v>
       </c>
       <c r="AE3" t="n">
-        <v>8396</v>
+        <v>9276</v>
       </c>
       <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="n">
-        <v>608</v>
+        <v>230</v>
       </c>
       <c r="AH3" t="n">
-        <v>64936</v>
+        <v>116343</v>
       </c>
       <c r="AI3" t="n">
-        <v>918</v>
+        <v>1673</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1137</v>
+        <v>2133</v>
       </c>
       <c r="AK3" t="n">
-        <v>907</v>
+        <v>805</v>
       </c>
       <c r="AL3" t="inlineStr"/>
       <c r="AM3" t="n">
-        <v>4275</v>
+        <v>7354</v>
       </c>
       <c r="AN3" t="n">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="AO3" t="inlineStr"/>
       <c r="AP3" t="n">
-        <v>79</v>
+        <v>265</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>1209</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
+        <v>2034</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1380</v>
+      </c>
       <c r="F4" t="n">
-        <v>3</v>
+        <v>456</v>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>36</v>
+        <v>461</v>
       </c>
       <c r="I4" t="n">
+        <v>2445</v>
+      </c>
+      <c r="J4" t="n">
+        <v>6387</v>
+      </c>
+      <c r="K4" t="n">
+        <v>5849</v>
+      </c>
+      <c r="L4" t="n">
+        <v>8183</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1875</v>
+      </c>
+      <c r="N4" t="n">
+        <v>10809</v>
+      </c>
+      <c r="O4" t="n">
+        <v>3157</v>
+      </c>
+      <c r="P4" t="n">
+        <v>128</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>163</v>
+      </c>
+      <c r="R4" t="n">
+        <v>221</v>
+      </c>
+      <c r="S4" t="n">
+        <v>3223</v>
+      </c>
+      <c r="T4" t="n">
+        <v>7311</v>
+      </c>
+      <c r="U4" t="n">
         <v>4670</v>
       </c>
-      <c r="J4" t="n">
-        <v>1079</v>
-      </c>
-      <c r="K4" t="n">
-        <v>7463</v>
-      </c>
-      <c r="L4" t="n">
-        <v>4266</v>
-      </c>
-      <c r="M4" t="n">
-        <v>340</v>
-      </c>
-      <c r="N4" t="n">
-        <v>6094</v>
-      </c>
-      <c r="O4" t="n">
-        <v>2325</v>
-      </c>
-      <c r="P4" t="n">
-        <v>190</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>130</v>
-      </c>
-      <c r="R4" t="n">
-        <v>21</v>
-      </c>
-      <c r="S4" t="n">
-        <v>379</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1209</v>
-      </c>
-      <c r="U4" t="n">
-        <v>3075</v>
-      </c>
       <c r="V4" t="n">
-        <v>7593</v>
+        <v>12411</v>
       </c>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="n">
-        <v>138</v>
+        <v>225</v>
       </c>
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="n">
-        <v>665</v>
+        <v>841</v>
       </c>
       <c r="AA4" t="n">
-        <v>676</v>
+        <v>684</v>
       </c>
       <c r="AB4" t="n">
-        <v>7632</v>
+        <v>11269</v>
       </c>
       <c r="AC4" t="n">
-        <v>1997</v>
+        <v>1523</v>
       </c>
       <c r="AD4" t="n">
-        <v>4628</v>
+        <v>4981</v>
       </c>
       <c r="AE4" t="n">
-        <v>8552</v>
+        <v>11038</v>
       </c>
       <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="n">
-        <v>1367</v>
+        <v>299</v>
       </c>
       <c r="AH4" t="n">
-        <v>75568</v>
+        <v>116429</v>
       </c>
       <c r="AI4" t="n">
-        <v>392</v>
+        <v>1666</v>
       </c>
       <c r="AJ4" t="n">
-        <v>2483</v>
+        <v>3094</v>
       </c>
       <c r="AK4" t="n">
-        <v>980</v>
+        <v>920</v>
       </c>
       <c r="AL4" t="inlineStr"/>
       <c r="AM4" t="n">
-        <v>5939</v>
+        <v>8472</v>
       </c>
       <c r="AN4" t="n">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="AO4" t="inlineStr"/>
       <c r="AP4" t="n">
-        <v>6</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
-      <c r="C5" t="n">
-        <v>7</v>
-      </c>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>968</v>
-      </c>
-      <c r="E5" t="inlineStr"/>
+        <v>2669</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1470</v>
+      </c>
       <c r="F5" t="n">
-        <v>169</v>
+        <v>285</v>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>222</v>
+        <v>741</v>
       </c>
       <c r="I5" t="n">
-        <v>3141</v>
+        <v>3121</v>
       </c>
       <c r="J5" t="n">
-        <v>7875</v>
+        <v>8152</v>
       </c>
       <c r="K5" t="n">
-        <v>4951</v>
+        <v>7406</v>
       </c>
       <c r="L5" t="n">
-        <v>8156</v>
+        <v>11022</v>
       </c>
       <c r="M5" t="n">
-        <v>1706</v>
+        <v>2413</v>
       </c>
       <c r="N5" t="n">
-        <v>3865</v>
+        <v>14519</v>
       </c>
       <c r="O5" t="n">
-        <v>1619</v>
+        <v>4796</v>
       </c>
       <c r="P5" t="n">
-        <v>99</v>
+        <v>187</v>
       </c>
       <c r="Q5" t="n">
-        <v>104</v>
+        <v>184</v>
       </c>
       <c r="R5" t="n">
-        <v>274</v>
+        <v>2700</v>
       </c>
       <c r="S5" t="n">
-        <v>1495</v>
+        <v>3916</v>
       </c>
       <c r="T5" t="n">
-        <v>6672</v>
+        <v>9149</v>
       </c>
       <c r="U5" t="n">
-        <v>3760</v>
+        <v>5931</v>
       </c>
       <c r="V5" t="n">
-        <v>8917</v>
+        <v>16483</v>
       </c>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="n">
-        <v>228</v>
+        <v>330</v>
       </c>
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="n">
-        <v>421</v>
+        <v>1165</v>
       </c>
       <c r="AA5" t="n">
-        <v>473</v>
+        <v>824</v>
       </c>
       <c r="AB5" t="n">
-        <v>9045</v>
+        <v>15673</v>
       </c>
       <c r="AC5" t="n">
-        <v>1156</v>
+        <v>310</v>
       </c>
       <c r="AD5" t="n">
-        <v>2603</v>
+        <v>8064</v>
       </c>
       <c r="AE5" t="n">
-        <v>7469</v>
+        <v>14046</v>
       </c>
       <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="n">
-        <v>786</v>
+        <v>423</v>
       </c>
       <c r="AH5" t="n">
-        <v>85381</v>
+        <v>153717</v>
       </c>
       <c r="AI5" t="n">
-        <v>1238</v>
+        <v>2124</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1504</v>
+        <v>4209</v>
       </c>
       <c r="AK5" t="n">
-        <v>772</v>
+        <v>1155</v>
       </c>
       <c r="AL5" t="inlineStr"/>
       <c r="AM5" t="n">
-        <v>5401</v>
+        <v>9848</v>
       </c>
       <c r="AN5" t="n">
-        <v>53</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>2</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="AO5" t="inlineStr"/>
       <c r="AP5" t="n">
-        <v>230</v>
+        <v>313</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
-      <c r="C6" t="n">
-        <v>15</v>
-      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>903</v>
-      </c>
-      <c r="E6" t="inlineStr"/>
+        <v>3934</v>
+      </c>
+      <c r="E6" t="n">
+        <v>595</v>
+      </c>
       <c r="F6" t="n">
-        <v>252</v>
+        <v>159</v>
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
-        <v>466</v>
+        <v>273</v>
       </c>
       <c r="I6" t="n">
-        <v>1096</v>
+        <v>5852</v>
       </c>
       <c r="J6" t="n">
-        <v>12292</v>
+        <v>3804</v>
       </c>
       <c r="K6" t="n">
-        <v>3268</v>
+        <v>9724</v>
       </c>
       <c r="L6" t="n">
-        <v>12722</v>
+        <v>7253</v>
       </c>
       <c r="M6" t="n">
-        <v>2783</v>
+        <v>667</v>
       </c>
       <c r="N6" t="n">
-        <v>1898</v>
+        <v>27354</v>
       </c>
       <c r="O6" t="n">
-        <v>796</v>
+        <v>7462</v>
       </c>
       <c r="P6" t="n">
-        <v>24</v>
+        <v>431</v>
       </c>
       <c r="Q6" t="n">
-        <v>169</v>
+        <v>214</v>
       </c>
       <c r="R6" t="n">
-        <v>318</v>
+        <v>96</v>
       </c>
       <c r="S6" t="n">
-        <v>3180</v>
+        <v>1709</v>
       </c>
       <c r="T6" t="n">
-        <v>9721</v>
+        <v>4415</v>
       </c>
       <c r="U6" t="n">
-        <v>5410</v>
+        <v>5599</v>
       </c>
       <c r="V6" t="n">
-        <v>9094</v>
+        <v>15997</v>
       </c>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="n">
-        <v>124</v>
+        <v>435</v>
       </c>
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="n">
-        <v>146</v>
+        <v>2047</v>
       </c>
       <c r="AA6" t="n">
-        <v>382</v>
+        <v>1437</v>
       </c>
       <c r="AB6" t="n">
-        <v>11255</v>
+        <v>11418</v>
       </c>
       <c r="AC6" t="n">
-        <v>616</v>
+        <v>5262</v>
       </c>
       <c r="AD6" t="n">
-        <v>1227</v>
+        <v>12679</v>
       </c>
       <c r="AE6" t="n">
-        <v>6780</v>
+        <v>15391</v>
       </c>
       <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="n">
-        <v>391</v>
+        <v>532</v>
       </c>
       <c r="AH6" t="n">
-        <v>93017</v>
+        <v>163799</v>
       </c>
       <c r="AI6" t="n">
-        <v>2068</v>
+        <v>1299</v>
       </c>
       <c r="AJ6" t="n">
-        <v>693</v>
+        <v>6848</v>
       </c>
       <c r="AK6" t="n">
-        <v>674</v>
+        <v>1260</v>
       </c>
       <c r="AL6" t="inlineStr"/>
       <c r="AM6" t="n">
-        <v>3706</v>
+        <v>9463</v>
       </c>
       <c r="AN6" t="n">
-        <v>84</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>35</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="AO6" t="inlineStr"/>
       <c r="AP6" t="n">
-        <v>429</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>1083</v>
+        <v>5137</v>
       </c>
       <c r="E7" t="n">
-        <v>2962</v>
+        <v>313</v>
       </c>
       <c r="F7" t="n">
-        <v>251</v>
+        <v>26</v>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>467</v>
+        <v>210</v>
       </c>
       <c r="I7" t="n">
-        <v>1264</v>
+        <v>7456</v>
       </c>
       <c r="J7" t="n">
-        <v>10138</v>
+        <v>2779</v>
       </c>
       <c r="K7" t="n">
-        <v>3936</v>
+        <v>11192</v>
       </c>
       <c r="L7" t="n">
-        <v>12255</v>
+        <v>5854</v>
       </c>
       <c r="M7" t="n">
-        <v>2958</v>
+        <v>173</v>
       </c>
       <c r="N7" t="n">
-        <v>5006</v>
+        <v>32981</v>
       </c>
       <c r="O7" t="n">
-        <v>1750</v>
+        <v>9888</v>
       </c>
       <c r="P7" t="n">
-        <v>725</v>
+        <v>536</v>
       </c>
       <c r="Q7" t="n">
-        <v>130</v>
+        <v>271</v>
       </c>
       <c r="R7" t="n">
-        <v>611</v>
+        <v>115</v>
       </c>
       <c r="S7" t="n">
-        <v>3743</v>
+        <v>796</v>
       </c>
       <c r="T7" t="n">
-        <v>11922</v>
+        <v>3032</v>
       </c>
       <c r="U7" t="n">
-        <v>6017</v>
+        <v>6641</v>
       </c>
       <c r="V7" t="n">
-        <v>11442</v>
+        <v>17682</v>
       </c>
       <c r="W7" t="inlineStr"/>
       <c r="X7" t="n">
-        <v>121</v>
+        <v>410</v>
       </c>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="n">
-        <v>427</v>
+        <v>2911</v>
       </c>
       <c r="AA7" t="n">
-        <v>622</v>
+        <v>2171</v>
       </c>
       <c r="AB7" t="n">
-        <v>12859</v>
+        <v>8670</v>
       </c>
       <c r="AC7" t="n">
-        <v>709</v>
+        <v>31481</v>
       </c>
       <c r="AD7" t="n">
-        <v>1511</v>
+        <v>16004</v>
       </c>
       <c r="AE7" t="n">
-        <v>7867</v>
+        <v>15650</v>
       </c>
       <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="n">
-        <v>217</v>
+        <v>830</v>
       </c>
       <c r="AH7" t="n">
-        <v>112070</v>
+        <v>204332</v>
       </c>
       <c r="AI7" t="n">
-        <v>2161</v>
+        <v>1107</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1310</v>
+        <v>8254</v>
       </c>
       <c r="AK7" t="n">
-        <v>931</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>161</v>
-      </c>
+        <v>1735</v>
+      </c>
+      <c r="AL7" t="inlineStr"/>
       <c r="AM7" t="n">
-        <v>5836</v>
+        <v>9651</v>
       </c>
       <c r="AN7" t="n">
-        <v>76</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>179</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="AO7" t="inlineStr"/>
       <c r="AP7" t="n">
-        <v>423</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
-        <v>1643</v>
+        <v>4326</v>
       </c>
       <c r="E8" t="n">
-        <v>1705</v>
+        <v>627</v>
       </c>
       <c r="F8" t="n">
-        <v>477</v>
+        <v>109</v>
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="n">
-        <v>403</v>
+        <v>213</v>
       </c>
       <c r="I8" t="n">
-        <v>2058</v>
+        <v>7896</v>
       </c>
       <c r="J8" t="n">
-        <v>8095</v>
+        <v>3605</v>
       </c>
       <c r="K8" t="n">
-        <v>4949</v>
+        <v>12798</v>
       </c>
       <c r="L8" t="n">
-        <v>8881</v>
+        <v>7944</v>
       </c>
       <c r="M8" t="n">
-        <v>2365</v>
+        <v>251</v>
       </c>
       <c r="N8" t="n">
-        <v>9407</v>
+        <v>15622</v>
       </c>
       <c r="O8" t="n">
-        <v>2736</v>
+        <v>12944</v>
       </c>
       <c r="P8" t="n">
-        <v>95</v>
+        <v>337</v>
       </c>
       <c r="Q8" t="n">
-        <v>131</v>
+        <v>436</v>
       </c>
       <c r="R8" t="n">
-        <v>287</v>
+        <v>227</v>
       </c>
       <c r="S8" t="n">
-        <v>3465</v>
+        <v>871</v>
       </c>
       <c r="T8" t="n">
-        <v>10374</v>
+        <v>4626</v>
       </c>
       <c r="U8" t="n">
-        <v>5241</v>
+        <v>8657</v>
       </c>
       <c r="V8" t="n">
-        <v>12596</v>
+        <v>20354</v>
       </c>
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="n">
-        <v>153</v>
+        <v>217</v>
       </c>
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="n">
-        <v>739</v>
+        <v>2962</v>
       </c>
       <c r="AA8" t="n">
-        <v>579</v>
+        <v>2295</v>
       </c>
       <c r="AB8" t="n">
-        <v>12036</v>
+        <v>10571</v>
       </c>
       <c r="AC8" t="n">
-        <v>1326</v>
+        <v>37948</v>
       </c>
       <c r="AD8" t="n">
-        <v>4821</v>
+        <v>16966</v>
       </c>
       <c r="AE8" t="n">
-        <v>9276</v>
+        <v>14757</v>
       </c>
       <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="n">
-        <v>230</v>
+        <v>1036</v>
       </c>
       <c r="AH8" t="n">
-        <v>116343</v>
+        <v>213385</v>
       </c>
       <c r="AI8" t="n">
-        <v>1673</v>
+        <v>1604</v>
       </c>
       <c r="AJ8" t="n">
-        <v>2133</v>
+        <v>9665</v>
       </c>
       <c r="AK8" t="n">
-        <v>805</v>
+        <v>2051</v>
       </c>
       <c r="AL8" t="inlineStr"/>
       <c r="AM8" t="n">
-        <v>7354</v>
+        <v>10503</v>
       </c>
       <c r="AN8" t="n">
-        <v>45</v>
+        <v>906</v>
       </c>
       <c r="AO8" t="inlineStr"/>
       <c r="AP8" t="n">
-        <v>265</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
-        <v>2034</v>
+        <v>3923</v>
       </c>
       <c r="E9" t="n">
-        <v>1380</v>
+        <v>479</v>
       </c>
       <c r="F9" t="n">
-        <v>456</v>
+        <v>126</v>
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="n">
-        <v>461</v>
+        <v>351</v>
       </c>
       <c r="I9" t="n">
-        <v>2445</v>
+        <v>7630</v>
       </c>
       <c r="J9" t="n">
-        <v>6387</v>
+        <v>3298</v>
       </c>
       <c r="K9" t="n">
-        <v>5849</v>
+        <v>11503</v>
       </c>
       <c r="L9" t="n">
-        <v>8183</v>
+        <v>7364</v>
       </c>
       <c r="M9" t="n">
-        <v>1875</v>
+        <v>242</v>
       </c>
       <c r="N9" t="n">
-        <v>10809</v>
+        <v>14687</v>
       </c>
       <c r="O9" t="n">
-        <v>3157</v>
+        <v>12542</v>
       </c>
       <c r="P9" t="n">
-        <v>128</v>
+        <v>337</v>
       </c>
       <c r="Q9" t="n">
-        <v>163</v>
+        <v>433</v>
       </c>
       <c r="R9" t="n">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="S9" t="n">
-        <v>3223</v>
+        <v>921</v>
       </c>
       <c r="T9" t="n">
-        <v>7311</v>
+        <v>4118</v>
       </c>
       <c r="U9" t="n">
-        <v>4670</v>
+        <v>7827</v>
       </c>
       <c r="V9" t="n">
-        <v>12411</v>
+        <v>18452</v>
       </c>
       <c r="W9" t="inlineStr"/>
       <c r="X9" t="n">
-        <v>225</v>
+        <v>175</v>
       </c>
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="n">
-        <v>841</v>
+        <v>2811</v>
       </c>
       <c r="AA9" t="n">
-        <v>684</v>
+        <v>2054</v>
       </c>
       <c r="AB9" t="n">
-        <v>11269</v>
+        <v>10032</v>
       </c>
       <c r="AC9" t="n">
-        <v>1523</v>
+        <v>50653</v>
       </c>
       <c r="AD9" t="n">
-        <v>4981</v>
+        <v>16893</v>
       </c>
       <c r="AE9" t="n">
-        <v>11038</v>
+        <v>13299</v>
       </c>
       <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="n">
-        <v>299</v>
+        <v>878</v>
       </c>
       <c r="AH9" t="n">
-        <v>116429</v>
+        <v>214226</v>
       </c>
       <c r="AI9" t="n">
-        <v>1666</v>
+        <v>1676</v>
       </c>
       <c r="AJ9" t="n">
-        <v>3094</v>
+        <v>9596</v>
       </c>
       <c r="AK9" t="n">
-        <v>920</v>
+        <v>1888</v>
       </c>
       <c r="AL9" t="inlineStr"/>
       <c r="AM9" t="n">
-        <v>8472</v>
+        <v>8964</v>
       </c>
       <c r="AN9" t="n">
-        <v>46</v>
+        <v>840</v>
       </c>
       <c r="AO9" t="inlineStr"/>
       <c r="AP9" t="n">
-        <v>208</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
-        <v>2669</v>
+        <v>4985</v>
       </c>
       <c r="E10" t="n">
-        <v>1470</v>
+        <v>614</v>
       </c>
       <c r="F10" t="n">
-        <v>285</v>
+        <v>652</v>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
-        <v>741</v>
+        <v>190</v>
       </c>
       <c r="I10" t="n">
-        <v>3121</v>
+        <v>10795</v>
       </c>
       <c r="J10" t="n">
-        <v>8152</v>
+        <v>4787</v>
       </c>
       <c r="K10" t="n">
-        <v>7406</v>
+        <v>16783</v>
       </c>
       <c r="L10" t="n">
-        <v>11022</v>
+        <v>16564</v>
       </c>
       <c r="M10" t="n">
-        <v>2413</v>
+        <v>305</v>
       </c>
       <c r="N10" t="n">
-        <v>14519</v>
+        <v>19308</v>
       </c>
       <c r="O10" t="n">
-        <v>4796</v>
+        <v>11561</v>
       </c>
       <c r="P10" t="n">
-        <v>187</v>
+        <v>395</v>
       </c>
       <c r="Q10" t="n">
-        <v>184</v>
+        <v>500</v>
       </c>
       <c r="R10" t="n">
-        <v>2700</v>
+        <v>222</v>
       </c>
       <c r="S10" t="n">
-        <v>3916</v>
+        <v>823</v>
       </c>
       <c r="T10" t="n">
-        <v>9149</v>
+        <v>6220</v>
       </c>
       <c r="U10" t="n">
-        <v>5931</v>
+        <v>10816</v>
       </c>
       <c r="V10" t="n">
-        <v>16483</v>
+        <v>20334</v>
       </c>
       <c r="W10" t="inlineStr"/>
       <c r="X10" t="n">
-        <v>330</v>
+        <v>251</v>
       </c>
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="n">
-        <v>1165</v>
+        <v>358</v>
       </c>
       <c r="AA10" t="n">
-        <v>824</v>
+        <v>2414</v>
       </c>
       <c r="AB10" t="n">
-        <v>15673</v>
+        <v>16558</v>
       </c>
       <c r="AC10" t="n">
-        <v>310</v>
+        <v>18212</v>
       </c>
       <c r="AD10" t="n">
-        <v>8064</v>
+        <v>26736</v>
       </c>
       <c r="AE10" t="n">
-        <v>14046</v>
+        <v>26164</v>
       </c>
       <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="n">
-        <v>423</v>
+        <v>1151</v>
       </c>
       <c r="AH10" t="n">
-        <v>153717</v>
+        <v>249948</v>
       </c>
       <c r="AI10" t="n">
-        <v>2124</v>
+        <v>1923</v>
       </c>
       <c r="AJ10" t="n">
-        <v>4209</v>
+        <v>14120</v>
       </c>
       <c r="AK10" t="n">
-        <v>1155</v>
+        <v>2782</v>
       </c>
       <c r="AL10" t="inlineStr"/>
       <c r="AM10" t="n">
-        <v>9848</v>
+        <v>13045</v>
       </c>
       <c r="AN10" t="n">
-        <v>89</v>
+        <v>325</v>
       </c>
       <c r="AO10" t="inlineStr"/>
       <c r="AP10" t="n">
-        <v>313</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
-        <v>3934</v>
+        <v>6675</v>
       </c>
       <c r="E11" t="n">
-        <v>595</v>
+        <v>873</v>
       </c>
       <c r="F11" t="n">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="I11" t="n">
-        <v>5852</v>
+        <v>13359</v>
       </c>
       <c r="J11" t="n">
-        <v>3804</v>
+        <v>5380</v>
       </c>
       <c r="K11" t="n">
-        <v>9724</v>
+        <v>19420</v>
       </c>
       <c r="L11" t="n">
-        <v>7253</v>
+        <v>16680</v>
       </c>
       <c r="M11" t="n">
-        <v>667</v>
+        <v>500</v>
       </c>
       <c r="N11" t="n">
-        <v>27354</v>
+        <v>26361</v>
       </c>
       <c r="O11" t="n">
-        <v>7462</v>
+        <v>15941</v>
       </c>
       <c r="P11" t="n">
-        <v>431</v>
+        <v>453</v>
       </c>
       <c r="Q11" t="n">
-        <v>214</v>
+        <v>642</v>
       </c>
       <c r="R11" t="n">
-        <v>96</v>
+        <v>373</v>
       </c>
       <c r="S11" t="n">
-        <v>1709</v>
+        <v>1662</v>
       </c>
       <c r="T11" t="n">
-        <v>4415</v>
+        <v>6929</v>
       </c>
       <c r="U11" t="n">
-        <v>5599</v>
+        <v>11146</v>
       </c>
       <c r="V11" t="n">
-        <v>15997</v>
+        <v>22024</v>
       </c>
       <c r="W11" t="inlineStr"/>
       <c r="X11" t="n">
-        <v>435</v>
+        <v>322</v>
       </c>
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="n">
-        <v>2047</v>
+        <v>20</v>
       </c>
       <c r="AA11" t="n">
-        <v>1437</v>
+        <v>3378</v>
       </c>
       <c r="AB11" t="n">
-        <v>11418</v>
+        <v>18338</v>
       </c>
       <c r="AC11" t="n">
-        <v>5262</v>
+        <v>8138</v>
       </c>
       <c r="AD11" t="n">
-        <v>12679</v>
+        <v>30181</v>
       </c>
       <c r="AE11" t="n">
-        <v>15391</v>
+        <v>22260</v>
       </c>
       <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="n">
-        <v>532</v>
+        <v>1374</v>
       </c>
       <c r="AH11" t="n">
-        <v>163799</v>
+        <v>271240</v>
       </c>
       <c r="AI11" t="n">
-        <v>1299</v>
+        <v>2354</v>
       </c>
       <c r="AJ11" t="n">
-        <v>6848</v>
+        <v>17786</v>
       </c>
       <c r="AK11" t="n">
-        <v>1260</v>
+        <v>3413</v>
       </c>
       <c r="AL11" t="inlineStr"/>
       <c r="AM11" t="n">
-        <v>9463</v>
+        <v>14305</v>
       </c>
       <c r="AN11" t="n">
-        <v>97</v>
+        <v>473</v>
       </c>
       <c r="AO11" t="inlineStr"/>
       <c r="AP11" t="n">
-        <v>93</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="n">
-        <v>5137</v>
+        <v>7826</v>
       </c>
       <c r="E12" t="n">
-        <v>313</v>
+        <v>1409</v>
       </c>
       <c r="F12" t="n">
-        <v>26</v>
+        <v>262</v>
       </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>210</v>
+        <v>327</v>
       </c>
       <c r="I12" t="n">
-        <v>7456</v>
+        <v>17078</v>
       </c>
       <c r="J12" t="n">
-        <v>2779</v>
+        <v>6250</v>
       </c>
       <c r="K12" t="n">
-        <v>11192</v>
+        <v>22792</v>
       </c>
       <c r="L12" t="n">
-        <v>5854</v>
+        <v>17864</v>
       </c>
       <c r="M12" t="n">
-        <v>173</v>
+        <v>577</v>
       </c>
       <c r="N12" t="n">
-        <v>32981</v>
+        <v>27459</v>
       </c>
       <c r="O12" t="n">
-        <v>9888</v>
+        <v>33573</v>
       </c>
       <c r="P12" t="n">
-        <v>536</v>
+        <v>501</v>
       </c>
       <c r="Q12" t="n">
-        <v>271</v>
+        <v>706</v>
       </c>
       <c r="R12" t="n">
-        <v>115</v>
+        <v>473</v>
       </c>
       <c r="S12" t="n">
-        <v>796</v>
+        <v>15975</v>
       </c>
       <c r="T12" t="n">
-        <v>3032</v>
+        <v>9368</v>
       </c>
       <c r="U12" t="n">
-        <v>6641</v>
+        <v>12922</v>
       </c>
       <c r="V12" t="n">
-        <v>17682</v>
+        <v>23468</v>
       </c>
       <c r="W12" t="inlineStr"/>
       <c r="X12" t="n">
-        <v>410</v>
+        <v>311</v>
       </c>
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="n">
-        <v>2911</v>
+        <v>11</v>
       </c>
       <c r="AA12" t="n">
-        <v>2171</v>
+        <v>3714</v>
       </c>
       <c r="AB12" t="n">
-        <v>8670</v>
+        <v>19009</v>
       </c>
       <c r="AC12" t="n">
-        <v>31481</v>
+        <v>11561</v>
       </c>
       <c r="AD12" t="n">
-        <v>16004</v>
+        <v>35200</v>
       </c>
       <c r="AE12" t="n">
-        <v>15650</v>
+        <v>26202</v>
       </c>
       <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="n">
-        <v>830</v>
+        <v>1660</v>
       </c>
       <c r="AH12" t="n">
-        <v>204332</v>
+        <v>340715</v>
       </c>
       <c r="AI12" t="n">
-        <v>1107</v>
+        <v>2895</v>
       </c>
       <c r="AJ12" t="n">
-        <v>8254</v>
+        <v>19755</v>
       </c>
       <c r="AK12" t="n">
-        <v>1735</v>
+        <v>3322</v>
       </c>
       <c r="AL12" t="inlineStr"/>
       <c r="AM12" t="n">
-        <v>9651</v>
+        <v>17624</v>
       </c>
       <c r="AN12" t="n">
-        <v>313</v>
+        <v>484</v>
       </c>
       <c r="AO12" t="inlineStr"/>
       <c r="AP12" t="n">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="n">
-        <v>4326</v>
-      </c>
-      <c r="E13" t="n">
-        <v>627</v>
-      </c>
-      <c r="F13" t="n">
-        <v>109</v>
-      </c>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="n">
-        <v>213</v>
-      </c>
-      <c r="I13" t="n">
-        <v>7896</v>
-      </c>
-      <c r="J13" t="n">
-        <v>3605</v>
-      </c>
-      <c r="K13" t="n">
-        <v>12798</v>
-      </c>
-      <c r="L13" t="n">
-        <v>7944</v>
-      </c>
-      <c r="M13" t="n">
-        <v>251</v>
-      </c>
-      <c r="N13" t="n">
-        <v>15622</v>
-      </c>
-      <c r="O13" t="n">
-        <v>12944</v>
-      </c>
-      <c r="P13" t="n">
-        <v>337</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>436</v>
-      </c>
-      <c r="R13" t="n">
-        <v>227</v>
-      </c>
-      <c r="S13" t="n">
-        <v>871</v>
-      </c>
-      <c r="T13" t="n">
-        <v>4626</v>
-      </c>
-      <c r="U13" t="n">
-        <v>8657</v>
-      </c>
-      <c r="V13" t="n">
-        <v>20354</v>
-      </c>
-      <c r="W13" t="inlineStr"/>
-      <c r="X13" t="n">
-        <v>217</v>
-      </c>
-      <c r="Y13" t="inlineStr"/>
-      <c r="Z13" t="n">
-        <v>2962</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>2295</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>10571</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>37948</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>16966</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>14757</v>
-      </c>
-      <c r="AF13" t="inlineStr"/>
-      <c r="AG13" t="n">
-        <v>1036</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>213385</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>1604</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>9665</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>2051</v>
-      </c>
-      <c r="AL13" t="inlineStr"/>
-      <c r="AM13" t="n">
-        <v>10503</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>906</v>
-      </c>
-      <c r="AO13" t="inlineStr"/>
-      <c r="AP13" t="n">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="n">
-        <v>3923</v>
-      </c>
-      <c r="E14" t="n">
-        <v>479</v>
-      </c>
-      <c r="F14" t="n">
-        <v>126</v>
-      </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="n">
-        <v>351</v>
-      </c>
-      <c r="I14" t="n">
-        <v>7630</v>
-      </c>
-      <c r="J14" t="n">
-        <v>3298</v>
-      </c>
-      <c r="K14" t="n">
-        <v>11503</v>
-      </c>
-      <c r="L14" t="n">
-        <v>7364</v>
-      </c>
-      <c r="M14" t="n">
-        <v>242</v>
-      </c>
-      <c r="N14" t="n">
-        <v>14687</v>
-      </c>
-      <c r="O14" t="n">
-        <v>12542</v>
-      </c>
-      <c r="P14" t="n">
-        <v>337</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>433</v>
-      </c>
-      <c r="R14" t="n">
-        <v>193</v>
-      </c>
-      <c r="S14" t="n">
-        <v>921</v>
-      </c>
-      <c r="T14" t="n">
-        <v>4118</v>
-      </c>
-      <c r="U14" t="n">
-        <v>7827</v>
-      </c>
-      <c r="V14" t="n">
-        <v>18452</v>
-      </c>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="n">
-        <v>175</v>
-      </c>
-      <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="n">
-        <v>2811</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>2054</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>10032</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>50653</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>16893</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>13299</v>
-      </c>
-      <c r="AF14" t="inlineStr"/>
-      <c r="AG14" t="n">
-        <v>878</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>214226</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>1676</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>9596</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>1888</v>
-      </c>
-      <c r="AL14" t="inlineStr"/>
-      <c r="AM14" t="n">
-        <v>8964</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>840</v>
-      </c>
-      <c r="AO14" t="inlineStr"/>
-      <c r="AP14" t="n">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="n">
-        <v>4985</v>
-      </c>
-      <c r="E15" t="n">
-        <v>614</v>
-      </c>
-      <c r="F15" t="n">
-        <v>652</v>
-      </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="n">
-        <v>190</v>
-      </c>
-      <c r="I15" t="n">
-        <v>10795</v>
-      </c>
-      <c r="J15" t="n">
-        <v>4787</v>
-      </c>
-      <c r="K15" t="n">
-        <v>16783</v>
-      </c>
-      <c r="L15" t="n">
-        <v>16564</v>
-      </c>
-      <c r="M15" t="n">
-        <v>305</v>
-      </c>
-      <c r="N15" t="n">
-        <v>19308</v>
-      </c>
-      <c r="O15" t="n">
-        <v>11561</v>
-      </c>
-      <c r="P15" t="n">
-        <v>395</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>500</v>
-      </c>
-      <c r="R15" t="n">
-        <v>222</v>
-      </c>
-      <c r="S15" t="n">
-        <v>823</v>
-      </c>
-      <c r="T15" t="n">
-        <v>6220</v>
-      </c>
-      <c r="U15" t="n">
-        <v>10816</v>
-      </c>
-      <c r="V15" t="n">
-        <v>20334</v>
-      </c>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="n">
-        <v>251</v>
-      </c>
-      <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="n">
-        <v>358</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>2414</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>16558</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>18212</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>26736</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>26164</v>
-      </c>
-      <c r="AF15" t="inlineStr"/>
-      <c r="AG15" t="n">
-        <v>1151</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>249948</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>1923</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>14120</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>2782</v>
-      </c>
-      <c r="AL15" t="inlineStr"/>
-      <c r="AM15" t="n">
-        <v>13045</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>325</v>
-      </c>
-      <c r="AO15" t="inlineStr"/>
-      <c r="AP15" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="n">
-        <v>6675</v>
-      </c>
-      <c r="E16" t="n">
-        <v>873</v>
-      </c>
-      <c r="F16" t="n">
-        <v>140</v>
-      </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="n">
-        <v>266</v>
-      </c>
-      <c r="I16" t="n">
-        <v>13359</v>
-      </c>
-      <c r="J16" t="n">
-        <v>5380</v>
-      </c>
-      <c r="K16" t="n">
-        <v>19420</v>
-      </c>
-      <c r="L16" t="n">
-        <v>16680</v>
-      </c>
-      <c r="M16" t="n">
-        <v>500</v>
-      </c>
-      <c r="N16" t="n">
-        <v>26361</v>
-      </c>
-      <c r="O16" t="n">
-        <v>15941</v>
-      </c>
-      <c r="P16" t="n">
-        <v>453</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>642</v>
-      </c>
-      <c r="R16" t="n">
-        <v>373</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1662</v>
-      </c>
-      <c r="T16" t="n">
-        <v>6929</v>
-      </c>
-      <c r="U16" t="n">
-        <v>11146</v>
-      </c>
-      <c r="V16" t="n">
-        <v>22024</v>
-      </c>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="n">
-        <v>322</v>
-      </c>
-      <c r="Y16" t="inlineStr"/>
-      <c r="Z16" t="n">
-        <v>20</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>3378</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>18338</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>8138</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>30181</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>22260</v>
-      </c>
-      <c r="AF16" t="inlineStr"/>
-      <c r="AG16" t="n">
-        <v>1374</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>271240</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>2354</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>17786</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>3413</v>
-      </c>
-      <c r="AL16" t="inlineStr"/>
-      <c r="AM16" t="n">
-        <v>14305</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>473</v>
-      </c>
-      <c r="AO16" t="inlineStr"/>
-      <c r="AP16" t="n">
-        <v>74</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
